--- a/ozon.xlsx
+++ b/ozon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">order</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">from_merch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">54251 </t>
@@ -428,10 +425,10 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.51"/>
   </cols>
@@ -463,9 +460,7 @@
       <c r="C2" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -480,9 +475,7 @@
       <c r="C3" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -497,14 +490,12 @@
       <c r="C4" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>1783081</v>
       </c>
@@ -514,14 +505,12 @@
       <c r="C5" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>1789284</v>
       </c>
@@ -531,14 +520,12 @@
       <c r="C6" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1791151</v>
       </c>
@@ -548,14 +535,12 @@
       <c r="C7" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>1799340</v>
       </c>
@@ -565,14 +550,12 @@
       <c r="C8" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1802065</v>
       </c>
@@ -582,14 +565,12 @@
       <c r="C9" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>1802207</v>
       </c>
@@ -599,14 +580,12 @@
       <c r="C10" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1823504</v>
       </c>
@@ -616,14 +595,12 @@
       <c r="C11" s="4" t="n">
         <v>-3</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>1812568</v>
       </c>
@@ -633,213 +610,187 @@
       <c r="C12" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>1814570</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>1814685</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>1817740</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>1821823</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>1821892</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>1824737</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>1827242</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>1827275</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>1829066</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>1831297</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>1833129</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>1833135</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="6" t="n">
         <v>3.5</v>
       </c>

--- a/ozon.xlsx
+++ b/ozon.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,7 +460,9 @@
       <c r="C2" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -475,7 +477,9 @@
       <c r="C3" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -490,7 +494,9 @@
       <c r="C4" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -505,7 +511,9 @@
       <c r="C5" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -520,7 +528,9 @@
       <c r="C6" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -535,7 +545,9 @@
       <c r="C7" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -550,7 +562,9 @@
       <c r="C8" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -565,7 +579,9 @@
       <c r="C9" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -580,7 +596,9 @@
       <c r="C10" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -595,7 +613,9 @@
       <c r="C11" s="4" t="n">
         <v>-3</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" s="6" t="n">
         <v>8</v>
       </c>
@@ -610,7 +630,9 @@
       <c r="C12" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -625,7 +647,9 @@
       <c r="C13" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -640,7 +664,9 @@
       <c r="C14" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -655,7 +681,9 @@
       <c r="C15" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -670,7 +698,9 @@
       <c r="C16" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -685,7 +715,9 @@
       <c r="C17" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -700,7 +732,9 @@
       <c r="C18" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -715,7 +749,9 @@
       <c r="C19" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -730,7 +766,9 @@
       <c r="C20" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -745,7 +783,9 @@
       <c r="C21" s="4" t="n">
         <v>-7</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -760,7 +800,9 @@
       <c r="C22" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -775,7 +817,9 @@
       <c r="C23" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="6" t="n">
         <v>3.5</v>
       </c>
@@ -790,7 +834,9 @@
       <c r="C24" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" s="6" t="n">
         <v>3.5</v>
       </c>
